--- a/BHVN.xlsx
+++ b/BHVN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B6EC7-2E4C-4060-BA36-FD7CD16FB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E4CEF-A45F-4A19-8ECC-D286EFCAB98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54930" yWindow="6290" windowWidth="21910" windowHeight="13710" xr2:uid="{F7F78DF9-3509-4A04-BA5A-BBE1BEFD2FB5}"/>
+    <workbookView xWindow="43280" yWindow="3990" windowWidth="24340" windowHeight="15680" activeTab="1" xr2:uid="{F7F78DF9-3509-4A04-BA5A-BBE1BEFD2FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>Price</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Alzheimer's, ARIA</t>
   </si>
   <si>
-    <t>BHV-1510</t>
-  </si>
-  <si>
     <t>BHV-1600</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>beta-1 adrenergic receptor antibody depletor</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>BHV-1400</t>
   </si>
   <si>
@@ -227,6 +221,33 @@
   </si>
   <si>
     <t>Trop-2 ADC</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>BHV-1510 (fka PBI-410</t>
+  </si>
+  <si>
+    <t>Phase III "BHV4157-206"</t>
+  </si>
+  <si>
+    <t>f-SARA miss, filed anyway, got RTF</t>
+  </si>
+  <si>
+    <t>Phase II/III OCD - failed</t>
+  </si>
+  <si>
+    <t>GBM AGILE</t>
+  </si>
+  <si>
+    <t>BHV4157-206-RWE - NCT06529146</t>
+  </si>
+  <si>
+    <t>used CRC-SCA (PE at 3 years) and EUROSCA as comparator groups</t>
+  </si>
+  <si>
+    <t>Vyglxia, Dazluma, BHV-4157</t>
   </si>
 </sst>
 </file>
@@ -370,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -389,6 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,9 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B49622D-AA8A-4F5D-AF6F-807E29EF0A51}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -748,16 +768,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -765,8 +785,8 @@
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>20.46</v>
+      <c r="L2" s="16">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -774,20 +794,20 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3" s="4"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>101.054895</v>
+        <v>105.788197</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -803,7 +823,7 @@
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>2067.5831517000001</v>
+        <v>1904.1875459999999</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -818,10 +838,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>489</v>
+        <f>165.797+239.183</f>
+        <v>404.98</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="13" x14ac:dyDescent="0.3">
@@ -832,23 +853,23 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="4"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>257.07</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -859,10 +880,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="4"/>
       <c r="K7" t="s">
@@ -870,7 +891,7 @@
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>1578.5831517000001</v>
+        <v>1756.2775459999998</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="13" x14ac:dyDescent="0.3">
@@ -884,20 +905,20 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="4"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" s="4"/>
       <c r="K9" t="s">
@@ -909,81 +930,81 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="4"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I11" s="4"/>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="4"/>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="4"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I14" s="4"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4"/>
       <c r="L15" s="1"/>
@@ -993,14 +1014,14 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1008,17 +1029,17 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1032,9 +1053,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C1EA6-1FB5-430E-8D5E-73995EE33D80}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1044,17 +1067,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1062,17 +1088,47 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>38</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C14" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1097,12 +1153,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1110,22 +1166,22 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/BHVN.xlsx
+++ b/BHVN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E4CEF-A45F-4A19-8ECC-D286EFCAB98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E3B230-8D6C-465D-AC2F-4266497CCFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43280" yWindow="3990" windowWidth="24340" windowHeight="15680" activeTab="1" xr2:uid="{F7F78DF9-3509-4A04-BA5A-BBE1BEFD2FB5}"/>
+    <workbookView xWindow="50040" yWindow="3920" windowWidth="17370" windowHeight="13000" xr2:uid="{F7F78DF9-3509-4A04-BA5A-BBE1BEFD2FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -411,6 +411,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -750,7 +752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B49622D-AA8A-4F5D-AF6F-807E29EF0A51}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -852,13 +856,13 @@
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="4"/>
@@ -872,17 +876,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="4"/>
@@ -894,11 +898,11 @@
         <v>1756.2775459999998</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
@@ -941,17 +945,18 @@
       <c r="I10" s="4"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="4"/>
@@ -960,17 +965,18 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="4"/>
@@ -1055,9 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C1EA6-1FB5-430E-8D5E-73995EE33D80}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
